--- a/data/georgia_census/racha/oni/average_wages.xlsx
+++ b/data/georgia_census/racha/oni/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E696D0F2-54B9-4F21-9A8D-54869DA6F8F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{969F9B6D-9983-4CDA-9B7B-DB398770C090}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CB9E994-4F40-4598-AE9D-1A96A6FAB11D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F399EE5-E3AD-407D-9238-9C6B579FBB6C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F10FBD3-0E47-4414-B357-F326955504E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CBCF8B0-06DB-494C-891C-5A5D35761B6F}"/>
 </file>